--- a/biology/Médecine/Jean_Gabriel_Dufaud/Jean_Gabriel_Dufaud.xlsx
+++ b/biology/Médecine/Jean_Gabriel_Dufaud/Jean_Gabriel_Dufaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Gabriel Dufaud ou Gabriel Dufaud est un médecin français, né le 9 septembre 1855 à Clermont-Ferrand et mort le 7 janvier 1900 à Pau.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils d'Antoine Michel Dufaud (1825-...), propriétaire, négociant et receveur des hospices de la ville de Clermont-Ferrand, et de Julie Antoinette Lavandier (1828-1882), il nait le 9 septembre 1855 à Clermont-Ferrand, section ouest, au 1 rue des Chaussetiers[1]. Par son père, fils de Gabriel Dufaud, propriétaire, et de Marie Appoline Rispal, il est cousin au 6e degré du compositeur, François Marie Félix Artance-Poupat[2], et du médecin, Germain Léon Marie Louis Heulz[3], et cousin au 7e degré de l'avocat clermontois, Félix Chaudessolle[4].
-Il épouse, en premières noces, le 20 novembre 1883, à Ham, Uranie Eugénie Charlotte Surmay[5] avec laquelle il a une fille, Juliette Eugénie Charlotte, qui va épouser le polytechnicien, Ernest Marie Narcisse Jouveau dit Dubreuil.
-Il épouse, en secondes noces, le 26 novembre 1890, à la mairie du 6e arrondissement de Paris, Anne Louise Marie Noëmi Mordant[6].
-Il décède, à l'âge de 44 ans, le 7 janvier 1900 à Pau[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils d'Antoine Michel Dufaud (1825-...), propriétaire, négociant et receveur des hospices de la ville de Clermont-Ferrand, et de Julie Antoinette Lavandier (1828-1882), il nait le 9 septembre 1855 à Clermont-Ferrand, section ouest, au 1 rue des Chaussetiers. Par son père, fils de Gabriel Dufaud, propriétaire, et de Marie Appoline Rispal, il est cousin au 6e degré du compositeur, François Marie Félix Artance-Poupat, et du médecin, Germain Léon Marie Louis Heulz, et cousin au 7e degré de l'avocat clermontois, Félix Chaudessolle.
+Il épouse, en premières noces, le 20 novembre 1883, à Ham, Uranie Eugénie Charlotte Surmay avec laquelle il a une fille, Juliette Eugénie Charlotte, qui va épouser le polytechnicien, Ernest Marie Narcisse Jouveau dit Dubreuil.
+Il épouse, en secondes noces, le 26 novembre 1890, à la mairie du 6e arrondissement de Paris, Anne Louise Marie Noëmi Mordant.
+Il décède, à l'âge de 44 ans, le 7 janvier 1900 à Pau.
 </t>
         </is>
       </c>
@@ -545,23 +559,25 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Étudiant en médecine, il est reçu élève à l'école de santé militaire à l'hôpital du Gros-Caillou, à Paris[8].
-Il intègre, le 10 novembre 1876, en qualité de médecin-élève, l'école du Val-de-Grâce, où il est nommé médecin-stagiaire, le 28 février 1878[9].
-Nommé médecin-aide-major de 2e classe, par décret du 5 décembre 1878, pour prendre rang du 31 décembre suivant, il est affecté à l'hôpital militaire du camp de Châlons-sur-Marne[10]. Il est promu médecin-aide-major de 1re classe, le 19 novembre 1880, pour prendre rang du 31 décembre suivant[9].
-Le 22 novembre 1881, il est affecté au 36e régiment d'artillerie[9].
-Par décret en date du 26 janvier 1883, il est attaché à la direction du service de santé du 13e corps d'armée[5],[11].
-Il est promu médecin-major de 2e classe, le 18 mars 1885, et affecté au 107e régiment d'infanterie[9], stationné à Angoulême[12].
-Par décision ministérielle en date du 8 février 1886, il est désigné pour être affecté à l'hôpital thermal de Barèges, pour l'année 1886[13].
-Par décision ministérielle en date du 10 juin 1887, il est affecté aux hôpitaux militaires de la division d'Alger[14],[15] où il est nommé, le 15 juillet suivant, médecin-chef de l'hôpital militaire de Teniet El Had[9].
-Il participe à la campagne en Afrique, du 11 juillet au 21 octobre 1887[9].
-Le 4 novembre suivant, il est nommé à l'hôpital militaire du Bey[9].
-Vingt jours plus tard, il est affecté au 54e régiment d'infanterie[16] et détaché à Ham[9].
-Le 18 avril 1889, il rejoint les rangs du 4e régiment de chasseurs d'Afrique[9], en garnison à Tunis[6], et prend part à la campagne en Tunisie, du 20 mai 1889 au 22 mars 1893[9].
-Le 5 mars 1893, il est versé au 98e régiment d'infanterie, en garnison à Roanne, et, le 23 mars 1895, au 82e régiment d'infanterie, stationné à Montargis[9],[17].
-Affecté à l'hôpital militaire d'Amélie-les-Bains, par décision en date du 12 juillet 1897[18], il prend ses fonctions, le 18 août suivant. Il y sera nommé médecin-major de 1re classe, le 3 avril 1899[9].
-Atteint d'infirmités temporaires, il est mis en non-activité, le 31 mars 1899, et rayé des contrôles le 20 juin suivant[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Étudiant en médecine, il est reçu élève à l'école de santé militaire à l'hôpital du Gros-Caillou, à Paris.
+Il intègre, le 10 novembre 1876, en qualité de médecin-élève, l'école du Val-de-Grâce, où il est nommé médecin-stagiaire, le 28 février 1878.
+Nommé médecin-aide-major de 2e classe, par décret du 5 décembre 1878, pour prendre rang du 31 décembre suivant, il est affecté à l'hôpital militaire du camp de Châlons-sur-Marne. Il est promu médecin-aide-major de 1re classe, le 19 novembre 1880, pour prendre rang du 31 décembre suivant.
+Le 22 novembre 1881, il est affecté au 36e régiment d'artillerie.
+Par décret en date du 26 janvier 1883, il est attaché à la direction du service de santé du 13e corps d'armée,.
+Il est promu médecin-major de 2e classe, le 18 mars 1885, et affecté au 107e régiment d'infanterie, stationné à Angoulême.
+Par décision ministérielle en date du 8 février 1886, il est désigné pour être affecté à l'hôpital thermal de Barèges, pour l'année 1886.
+Par décision ministérielle en date du 10 juin 1887, il est affecté aux hôpitaux militaires de la division d'Alger, où il est nommé, le 15 juillet suivant, médecin-chef de l'hôpital militaire de Teniet El Had.
+Il participe à la campagne en Afrique, du 11 juillet au 21 octobre 1887.
+Le 4 novembre suivant, il est nommé à l'hôpital militaire du Bey.
+Vingt jours plus tard, il est affecté au 54e régiment d'infanterie et détaché à Ham.
+Le 18 avril 1889, il rejoint les rangs du 4e régiment de chasseurs d'Afrique, en garnison à Tunis, et prend part à la campagne en Tunisie, du 20 mai 1889 au 22 mars 1893.
+Le 5 mars 1893, il est versé au 98e régiment d'infanterie, en garnison à Roanne, et, le 23 mars 1895, au 82e régiment d'infanterie, stationné à Montargis,.
+Affecté à l'hôpital militaire d'Amélie-les-Bains, par décision en date du 12 juillet 1897, il prend ses fonctions, le 18 août suivant. Il y sera nommé médecin-major de 1re classe, le 3 avril 1899.
+Atteint d'infirmités temporaires, il est mis en non-activité, le 31 mars 1899, et rayé des contrôles le 20 juin suivant.
 </t>
         </is>
       </c>
@@ -590,11 +606,13 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 11 septembre 1891, il est nommé officier du nichan Iftikhar[9],[19].
-Ayant déjà reçu une citation du ministre, le 20 mai 1893[20],[9], son mémoire, intitulé Prophylaxie de l'endémie typhoïde à la caserne d'artillerie de Tunis (1889 à 1893), présenté à l'Académie de Médecine, est inscrit, en 1898, pour le concours du prix Nivet[21].
-Par décret du 10 juillet 1899, il est nommé chevalier de la Légion d'Honneur, en sa qualité de médecin-major de 1re classe, pour prendre rang du 19 juin 1899[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 11 septembre 1891, il est nommé officier du nichan Iftikhar,.
+Ayant déjà reçu une citation du ministre, le 20 mai 1893 son mémoire, intitulé Prophylaxie de l'endémie typhoïde à la caserne d'artillerie de Tunis (1889 à 1893), présenté à l'Académie de Médecine, est inscrit, en 1898, pour le concours du prix Nivet.
+Par décret du 10 juillet 1899, il est nommé chevalier de la Légion d'Honneur, en sa qualité de médecin-major de 1re classe, pour prendre rang du 19 juin 1899.
 </t>
         </is>
       </c>
@@ -623,10 +641,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Étude sur les divers moyens employés pour maintenir la réduction des fragments dans les fractures des deux os de la jambe, thèse pour le doctorat en médecine, 1878[22],
-Prophylaxie de l'endémie typhoïde à la caserne d'artillerie de Tunis (1889 à 1893)[21],
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Étude sur les divers moyens employés pour maintenir la réduction des fragments dans les fractures des deux os de la jambe, thèse pour le doctorat en médecine, 1878,
+Prophylaxie de l'endémie typhoïde à la caserne d'artillerie de Tunis (1889 à 1893),
 Histoire médicale de la garnison et de la ville de Roanne, Paris, F. Devalois, 1894 En ligne sur Gallica.</t>
         </is>
       </c>
